--- a/medicine/Pharmacie/Colin_Murdoch/Colin_Murdoch.xlsx
+++ b/medicine/Pharmacie/Colin_Murdoch/Colin_Murdoch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colin Albert Murdoch, né le 6 février 1929 à Christchurch et mort le 4 mai 2008, est un pharmacien et vétérinaire néo-zélandais, auteur d'un nombre élevé d'inventions telles que le fusil hypodermique ou encore la seringue hypodermique jetable. Il y a au total 46 brevets enregistrés à son nom[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin Albert Murdoch, né le 6 février 1929 à Christchurch et mort le 4 mai 2008, est un pharmacien et vétérinaire néo-zélandais, auteur d'un nombre élevé d'inventions telles que le fusil hypodermique ou encore la seringue hypodermique jetable. Il y a au total 46 brevets enregistrés à son nom.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Christchurch, en Nouvelle-Zélande, en 1929, de Mary Kathleen et Frank William James, Murdoch déploie un talent précoce pour la chimie dès son très jeune âge. Bien qu'il doive lutter pendant ses années d'école avec la dyslexie, Murdoch s'intéresse énormément à la fois à la mécanique et aux techniques. À l'âge de dix ans, il réussit à fabriquer de ses mains un pistolet à poudre et découvre une possibilité de combustion en mélangeant certains nitrates et de l'acide sulfurique. Cette découverte permet au jeune Murdoch la construction d'une arme à feu à partir d'une mèche et d'un petit filament d'amiante.
 À l'âge de treize ans, il est récompensé de la Royal Society Medal pour avoir sauvé un homme de la noyade dans l'estuaire du New Brighton.
@@ -544,7 +558,9 @@
           <t>La seringue hypodermique jetable</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant à la fois pharmacien et vétérinaire, Murdoch est très au courant des risques encourus par le patient à cause de la réutilisation des seringues. Il y a en effet un fort risque de transmission d'infection de patient à patient, qu'il soit humain ou animal, contrairement à ce qui se passe si les seringues sont stérilisées à chaque utilisation. Souhaitant éliminer ces risques et gagner en efficacité vaccinale, Murdoch invente la seringue hypodermique jetable, une version en plastique des seringues précédemment en verre. Murdoch présente son invention à des officiels du New Zealand Department of Health qui en sont sceptiques, l'estimant "trop futuriste" et ayant un mauvais accueil à la fois des médecins et des patients. Le développement de l'invention est mis en sommeil pour une période de cinq ans à cause du manque d'argent. Finalement après que l'invention gagne le succès des patients, la seringue de Murdoch connait un immense succès avec des millions utilisée tous les jours dans le monde.
 </t>
@@ -575,7 +591,9 @@
           <t>Le fusil hypodermique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
@@ -583,7 +601,7 @@
 In the 1950s, while working with colleagues who were studying introduced wild goat, deer and tahr populations in New Zealand, Murdoch had the idea that the animals would be much easier to catch, examine and release if a dose of tranquilliser could be administered by projection from afar. Murdoch became experienced with repairing and modifying guns during the Second World War as rifles and shot guns were not being imported into New Zealand at that time. With both motive and experience, Murdoch went on to develop a range of rifles, darts and pistols which have had an enormous impact on the treatment and study of animals around the world.
 At the time Murdoch started testing his gun the only tranquilliser drugs available were curare and alkaloids of nicotine.
 Both of which tended to have fatal reactions in a high percentage of animals shot. In partnership with pharmaceutical companies, he helped develop more sophisticated drugs with precise and safe reactions.
-Paxarms Limited (which stands for peace and arms) is Murdoch’s own company which has developed various systems for administering veterinary products to a range of animals[2].
+Paxarms Limited (which stands for peace and arms) is Murdoch’s own company which has developed various systems for administering veterinary products to a range of animals.
 Traduire ce texte • Outils • (+)
 </t>
         </is>
@@ -613,12 +631,14 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
-Colin Murdoch has been acknowledged for his life's work. In 1976 he won three gold medals and a bronze at the World Inventions Fair in Brussels. The New Zealand Design Council has also honoured him and in 2000 he was made a member of the New Zealand Order of Merit. Time Magazine included him in a list of the 100 most influential people of the South Pacific[1]
+Colin Murdoch has been acknowledged for his life's work. In 1976 he won three gold medals and a bronze at the World Inventions Fair in Brussels. The New Zealand Design Council has also honoured him and in 2000 he was made a member of the New Zealand Order of Merit. Time Magazine included him in a list of the 100 most influential people of the South Pacific
 Despite the relative ubiquity of his inventions, Murdoch did not become rich because of them.  He deliberately chose not to sue companies that violated his patents, satisfied instead that they were being put to good use.
 In his final years he lived quietly in Timaru until his death from cancer.
 Traduire ce texte • Outils • (+)
